--- a/dataset/ROI Image Key.xlsx
+++ b/dataset/ROI Image Key.xlsx
@@ -3808,9 +3808,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003410F22768C7AC4AB0D0147528D61597" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dad5a64a40f0ea6dad7dac2f9f5699f2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d985a6ee-f830-4687-bdea-9372b30a159d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6363c176a0e50f1f751a9bb16ec53f93" ns2:_="">
-    <xsd:import namespace="d985a6ee-f830-4687-bdea-9372b30a159d"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100C03CF4FC1B23A74CBB0BA4DF2766FCCF" ma:contentTypeVersion="4" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="b25edcb813b5a2eb085f4785aeaf7c66">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="89260d37-62bf-4b87-9b6a-6ee0bdbc48f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eb4fbd2caec08619ec1b641761323b9" ns2:_="">
+    <xsd:import namespace="89260d37-62bf-4b87-9b6a-6ee0bdbc48f5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3820,6 +3820,7 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3827,7 +3828,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d985a6ee-f830-4687-bdea-9372b30a159d" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="89260d37-62bf-4b87-9b6a-6ee0bdbc48f5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3845,6 +3846,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -3855,8 +3861,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -3961,7 +3967,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E456E19F-5283-43D5-AFC0-5E3E3EC9053E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AD0A6E9-90BE-4875-86E0-7466256B5E9C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
